--- a/example/Estimation Tool.mm.mvp.ff.xlsx
+++ b/example/Estimation Tool.mm.mvp.ff.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estimates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$K$56</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$O$56</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>MVP</t>
+  </si>
+  <si>
+    <t>Module</t>
   </si>
   <si>
     <t>Comment</t>
@@ -298,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -361,6 +364,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
@@ -663,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AZ75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,22 +679,26 @@
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="40"/>
     <col customWidth="1" max="2" min="2" style="2" width="3"/>
-    <col customWidth="1" max="3" min="3" style="1" width="7"/>
-    <col customWidth="1" max="4" min="4" style="3" width="50"/>
-    <col customWidth="1" max="5" min="5" style="4" width="7"/>
-    <col customWidth="1" max="6" min="6" style="4" width="7"/>
-    <col customWidth="1" max="7" min="7" style="4" width="7"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7"/>
-    <col customWidth="1" max="9" min="9" style="4" width="7"/>
-    <col customWidth="1" max="10" min="10" style="4" width="7"/>
-    <col customWidth="1" max="11" min="11" style="4" width="7"/>
-    <col customWidth="1" hidden="1" max="13" min="13" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="14" min="14" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="15" min="15" style="1" width="10"/>
-    <col hidden="1" max="26" min="26"/>
+    <col customWidth="1" max="3" min="3" style="1" width="8"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" max="8" min="8" style="3" width="50"/>
+    <col customWidth="1" max="9" min="9" style="4" width="8"/>
+    <col customWidth="1" max="10" min="10" style="4" width="8"/>
+    <col customWidth="1" max="11" min="11" style="4" width="8"/>
+    <col customWidth="1" max="12" min="12" style="1" width="4"/>
+    <col customWidth="1" max="13" min="13" style="4" width="8"/>
+    <col customWidth="1" max="14" min="14" style="4" width="8"/>
+    <col customWidth="1" max="15" min="15" style="4" width="8"/>
+    <col customWidth="1" hidden="1" max="27" min="27" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="28" min="28" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="29" min="29" style="1" width="10"/>
+    <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:52">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -701,95 +711,109 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5" t="s"/>
+      <c r="F1" s="5" t="s"/>
+      <c r="G1" s="5" t="s"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s"/>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s"/>
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="2" t="s"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AC1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ1" s="2" t="s"/>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9">
-        <f>E3+E12+E17+E19</f>
-        <v/>
-      </c>
-      <c r="F2" s="9">
-        <f>F3+F12+F17+F19</f>
-        <v/>
-      </c>
-      <c r="G2" s="9">
-        <f>G3+G12+G17+G19</f>
-        <v/>
-      </c>
-      <c r="H2" s="6" t="s"/>
-      <c r="I2" s="6" t="s"/>
-      <c r="J2" s="6" t="s"/>
-      <c r="K2" s="6" t="s"/>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="D2" s="6" t="s"/>
+      <c r="E2" s="6" t="s"/>
+      <c r="F2" s="6" t="s"/>
+      <c r="G2" s="6" t="s"/>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <f>I3+I12+I17+I19</f>
+        <v/>
+      </c>
+      <c r="J2" s="9">
+        <f>J3+J12+J17+J19</f>
+        <v/>
+      </c>
+      <c r="K2" s="9">
+        <f>K3+K12+K17+K19</f>
+        <v/>
+      </c>
+      <c r="L2" s="6" t="s"/>
+      <c r="M2" s="6" t="s"/>
+      <c r="N2" s="6" t="s"/>
+      <c r="O2" s="6" t="s"/>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s"/>
       <c r="C3" s="10" t="s"/>
-      <c r="D3" s="12" t="s"/>
-      <c r="E3" s="13">
-        <f>E4+E6+E8+E10</f>
-        <v/>
-      </c>
-      <c r="F3" s="13">
-        <f>F4+F6+F8+F10</f>
-        <v/>
-      </c>
-      <c r="G3" s="13">
-        <f>G4+G6+G8+G10</f>
-        <v/>
-      </c>
-      <c r="H3" s="10" t="s"/>
-      <c r="I3" s="10" t="s"/>
-      <c r="J3" s="10" t="s"/>
-      <c r="K3" s="10" t="s"/>
-      <c r="Z3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="D3" s="10" t="s"/>
+      <c r="E3" s="10" t="s"/>
+      <c r="F3" s="10" t="s"/>
+      <c r="G3" s="10" t="s"/>
+      <c r="H3" s="12" t="s"/>
+      <c r="I3" s="13">
+        <f>I4+I6+I8+I10</f>
+        <v/>
+      </c>
+      <c r="J3" s="13">
+        <f>J4+J6+J8+J10</f>
+        <v/>
+      </c>
+      <c r="K3" s="13">
+        <f>K4+K6+K8+K10</f>
+        <v/>
+      </c>
+      <c r="L3" s="10" t="s"/>
+      <c r="M3" s="10" t="s"/>
+      <c r="N3" s="10" t="s"/>
+      <c r="O3" s="10" t="s"/>
+      <c r="AZ3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
@@ -797,117 +821,133 @@
       <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s"/>
-      <c r="E4" s="14">
-        <f>E5</f>
-        <v/>
-      </c>
-      <c r="F4" s="14">
-        <f>F5</f>
-        <v/>
-      </c>
-      <c r="G4" s="14">
-        <f>G5</f>
-        <v/>
-      </c>
-      <c r="H4" s="1" t="s"/>
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s"/>
+      <c r="F4" s="1" t="s"/>
+      <c r="G4" s="1" t="s"/>
+      <c r="H4" s="3" t="s"/>
       <c r="I4" s="14">
-        <f>(E4+4*F4+G4)/6</f>
+        <f>I5</f>
         <v/>
       </c>
       <c r="J4" s="14">
-        <f>(G4-E4)/6</f>
+        <f>J5</f>
         <v/>
       </c>
       <c r="K4" s="14">
-        <f>J4*J4</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="5" spans="1:26">
+        <f>K5</f>
+        <v/>
+      </c>
+      <c r="L4" s="1" t="s"/>
+      <c r="M4" s="14">
+        <f>(I4+4*J4+K4)/6</f>
+        <v/>
+      </c>
+      <c r="N4" s="14">
+        <f>(K4-I4)/6</f>
+        <v/>
+      </c>
+      <c r="O4" s="14">
+        <f>N4*N4</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="5" spans="1:52">
       <c r="A5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s"/>
       <c r="D5" s="15" t="s"/>
-      <c r="E5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="n">
+      <c r="E5" s="15" t="s"/>
+      <c r="F5" s="15" t="s"/>
+      <c r="G5" s="15" t="s"/>
+      <c r="H5" s="15" t="s"/>
+      <c r="I5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AB5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s"/>
+      <c r="E6" s="1" t="s"/>
+      <c r="F6" s="1" t="s"/>
+      <c r="G6" s="1" t="s"/>
+      <c r="H6" s="3" t="s"/>
+      <c r="I6" s="14">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J6" s="14">
+        <f>J7</f>
+        <v/>
+      </c>
+      <c r="K6" s="14">
+        <f>K7</f>
+        <v/>
+      </c>
+      <c r="L6" s="1" t="s"/>
+      <c r="M6" s="14">
+        <f>(I6+4*J6+K6)/6</f>
+        <v/>
+      </c>
+      <c r="N6" s="14">
+        <f>(K6-I6)/6</f>
+        <v/>
+      </c>
+      <c r="O6" s="14">
+        <f>N6*N6</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="7" spans="1:52">
+      <c r="A7" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s"/>
-      <c r="E6" s="14">
-        <f>E7</f>
-        <v/>
-      </c>
-      <c r="F6" s="14">
-        <f>F7</f>
-        <v/>
-      </c>
-      <c r="G6" s="14">
-        <f>G7</f>
-        <v/>
-      </c>
-      <c r="H6" s="1" t="s"/>
-      <c r="I6" s="14">
-        <f>(E6+4*F6+G6)/6</f>
-        <v/>
-      </c>
-      <c r="J6" s="14">
-        <f>(G6-E6)/6</f>
-        <v/>
-      </c>
-      <c r="K6" s="14">
-        <f>J6*J6</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="7" spans="1:26">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="B7" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s"/>
       <c r="D7" s="15" t="s"/>
-      <c r="E7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="n">
+      <c r="E7" s="15" t="s"/>
+      <c r="F7" s="15" t="s"/>
+      <c r="G7" s="15" t="s"/>
+      <c r="H7" s="15" t="s"/>
+      <c r="I7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="17" t="n">
+      <c r="K7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AB7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
@@ -915,58 +955,66 @@
       <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s"/>
-      <c r="E8" s="14">
-        <f>E9</f>
-        <v/>
-      </c>
-      <c r="F8" s="14">
-        <f>F9</f>
-        <v/>
-      </c>
-      <c r="G8" s="14">
-        <f>G9</f>
-        <v/>
-      </c>
-      <c r="H8" s="1" t="s"/>
+      <c r="D8" s="1" t="s"/>
+      <c r="E8" s="1" t="s"/>
+      <c r="F8" s="1" t="s"/>
+      <c r="G8" s="1" t="s"/>
+      <c r="H8" s="3" t="s"/>
       <c r="I8" s="14">
-        <f>(E8+4*F8+G8)/6</f>
+        <f>I9</f>
         <v/>
       </c>
       <c r="J8" s="14">
-        <f>(G8-E8)/6</f>
+        <f>J9</f>
         <v/>
       </c>
       <c r="K8" s="14">
-        <f>J8*J8</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="9" spans="1:26">
+        <f>K9</f>
+        <v/>
+      </c>
+      <c r="L8" s="1" t="s"/>
+      <c r="M8" s="14">
+        <f>(I8+4*J8+K8)/6</f>
+        <v/>
+      </c>
+      <c r="N8" s="14">
+        <f>(K8-I8)/6</f>
+        <v/>
+      </c>
+      <c r="O8" s="14">
+        <f>N8*N8</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="9" spans="1:52">
       <c r="A9" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s"/>
       <c r="D9" s="15" t="s"/>
-      <c r="E9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17" t="n">
+      <c r="E9" s="15" t="s"/>
+      <c r="F9" s="15" t="s"/>
+      <c r="G9" s="15" t="s"/>
+      <c r="H9" s="15" t="s"/>
+      <c r="I9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="K9" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AB9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
@@ -974,82 +1022,94 @@
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s"/>
-      <c r="E10" s="14">
-        <f>E11</f>
-        <v/>
-      </c>
-      <c r="F10" s="14">
-        <f>F11</f>
-        <v/>
-      </c>
-      <c r="G10" s="14">
-        <f>G11</f>
-        <v/>
-      </c>
-      <c r="H10" s="1" t="s"/>
+      <c r="D10" s="1" t="s"/>
+      <c r="E10" s="1" t="s"/>
+      <c r="F10" s="1" t="s"/>
+      <c r="G10" s="1" t="s"/>
+      <c r="H10" s="3" t="s"/>
       <c r="I10" s="14">
-        <f>(E10+4*F10+G10)/6</f>
+        <f>I11</f>
         <v/>
       </c>
       <c r="J10" s="14">
-        <f>(G10-E10)/6</f>
+        <f>J11</f>
         <v/>
       </c>
       <c r="K10" s="14">
-        <f>J10*J10</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="11" spans="1:26">
+        <f>K11</f>
+        <v/>
+      </c>
+      <c r="L10" s="1" t="s"/>
+      <c r="M10" s="14">
+        <f>(I10+4*J10+K10)/6</f>
+        <v/>
+      </c>
+      <c r="N10" s="14">
+        <f>(K10-I10)/6</f>
+        <v/>
+      </c>
+      <c r="O10" s="14">
+        <f>N10*N10</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="11" spans="1:52">
       <c r="A11" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s"/>
       <c r="D11" s="15" t="s"/>
-      <c r="E11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17" t="n">
+      <c r="E11" s="15" t="s"/>
+      <c r="F11" s="15" t="s"/>
+      <c r="G11" s="15" t="s"/>
+      <c r="H11" s="15" t="s"/>
+      <c r="I11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AB11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s"/>
       <c r="C12" s="10" t="s"/>
-      <c r="D12" s="12" t="s"/>
-      <c r="E12" s="13">
-        <f>E13+E15</f>
-        <v/>
-      </c>
-      <c r="F12" s="13">
-        <f>F13+F15</f>
-        <v/>
-      </c>
-      <c r="G12" s="13">
-        <f>G13+G15</f>
-        <v/>
-      </c>
-      <c r="H12" s="10" t="s"/>
-      <c r="I12" s="10" t="s"/>
-      <c r="J12" s="10" t="s"/>
-      <c r="K12" s="10" t="s"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="D12" s="10" t="s"/>
+      <c r="E12" s="10" t="s"/>
+      <c r="F12" s="10" t="s"/>
+      <c r="G12" s="10" t="s"/>
+      <c r="H12" s="12" t="s"/>
+      <c r="I12" s="13">
+        <f>I13+I15</f>
+        <v/>
+      </c>
+      <c r="J12" s="13">
+        <f>J13+J15</f>
+        <v/>
+      </c>
+      <c r="K12" s="13">
+        <f>K13+K15</f>
+        <v/>
+      </c>
+      <c r="L12" s="10" t="s"/>
+      <c r="M12" s="10" t="s"/>
+      <c r="N12" s="10" t="s"/>
+      <c r="O12" s="10" t="s"/>
+    </row>
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
@@ -1057,117 +1117,133 @@
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s"/>
-      <c r="E13" s="14">
-        <f>E14</f>
-        <v/>
-      </c>
-      <c r="F13" s="14">
-        <f>F14</f>
-        <v/>
-      </c>
-      <c r="G13" s="14">
-        <f>G14</f>
-        <v/>
-      </c>
-      <c r="H13" s="1" t="s"/>
+      <c r="D13" s="1" t="s"/>
+      <c r="E13" s="1" t="s"/>
+      <c r="F13" s="1" t="s"/>
+      <c r="G13" s="1" t="s"/>
+      <c r="H13" s="3" t="s"/>
       <c r="I13" s="14">
-        <f>(E13+4*F13+G13)/6</f>
+        <f>I14</f>
         <v/>
       </c>
       <c r="J13" s="14">
-        <f>(G13-E13)/6</f>
+        <f>J14</f>
         <v/>
       </c>
       <c r="K13" s="14">
-        <f>J13*J13</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="14" spans="1:26">
+        <f>K14</f>
+        <v/>
+      </c>
+      <c r="L13" s="1" t="s"/>
+      <c r="M13" s="14">
+        <f>(I13+4*J13+K13)/6</f>
+        <v/>
+      </c>
+      <c r="N13" s="14">
+        <f>(K13-I13)/6</f>
+        <v/>
+      </c>
+      <c r="O13" s="14">
+        <f>N13*N13</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="14" spans="1:52">
       <c r="A14" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s"/>
       <c r="D14" s="15" t="s"/>
-      <c r="E14" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17" t="n">
+      <c r="E14" s="15" t="s"/>
+      <c r="F14" s="15" t="s"/>
+      <c r="G14" s="15" t="s"/>
+      <c r="H14" s="15" t="s"/>
+      <c r="I14" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AC14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s"/>
+      <c r="F15" s="1" t="s"/>
+      <c r="G15" s="1" t="s"/>
+      <c r="H15" s="3" t="s"/>
+      <c r="I15" s="14">
+        <f>I16</f>
+        <v/>
+      </c>
+      <c r="J15" s="14">
+        <f>J16</f>
+        <v/>
+      </c>
+      <c r="K15" s="14">
+        <f>K16</f>
+        <v/>
+      </c>
+      <c r="L15" s="1" t="s"/>
+      <c r="M15" s="14">
+        <f>(I15+4*J15+K15)/6</f>
+        <v/>
+      </c>
+      <c r="N15" s="14">
+        <f>(K15-I15)/6</f>
+        <v/>
+      </c>
+      <c r="O15" s="14">
+        <f>N15*N15</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="16" spans="1:52">
+      <c r="A16" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s"/>
-      <c r="E15" s="14">
-        <f>E16</f>
-        <v/>
-      </c>
-      <c r="F15" s="14">
-        <f>F16</f>
-        <v/>
-      </c>
-      <c r="G15" s="14">
-        <f>G16</f>
-        <v/>
-      </c>
-      <c r="H15" s="1" t="s"/>
-      <c r="I15" s="14">
-        <f>(E15+4*F15+G15)/6</f>
-        <v/>
-      </c>
-      <c r="J15" s="14">
-        <f>(G15-E15)/6</f>
-        <v/>
-      </c>
-      <c r="K15" s="14">
-        <f>J15*J15</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="16" spans="1:26">
-      <c r="A16" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s"/>
       <c r="D16" s="15" t="s"/>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="15" t="s"/>
+      <c r="F16" s="15" t="s"/>
+      <c r="G16" s="15" t="s"/>
+      <c r="H16" s="15" t="s"/>
+      <c r="I16" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="J16" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="K16" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AC16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -1175,169 +1251,193 @@
       <c r="C17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s"/>
-      <c r="E17" s="14">
-        <f>E18</f>
-        <v/>
-      </c>
-      <c r="F17" s="14">
-        <f>F18</f>
-        <v/>
-      </c>
-      <c r="G17" s="14">
-        <f>G18</f>
-        <v/>
-      </c>
-      <c r="H17" s="1" t="s"/>
+      <c r="D17" s="1" t="s"/>
+      <c r="E17" s="1" t="s"/>
+      <c r="F17" s="1" t="s"/>
+      <c r="G17" s="1" t="s"/>
+      <c r="H17" s="3" t="s"/>
       <c r="I17" s="14">
-        <f>(E17+4*F17+G17)/6</f>
+        <f>I18</f>
         <v/>
       </c>
       <c r="J17" s="14">
-        <f>(G17-E17)/6</f>
+        <f>J18</f>
         <v/>
       </c>
       <c r="K17" s="14">
-        <f>J17*J17</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="18" spans="1:26">
+        <f>K18</f>
+        <v/>
+      </c>
+      <c r="L17" s="1" t="s"/>
+      <c r="M17" s="14">
+        <f>(I17+4*J17+K17)/6</f>
+        <v/>
+      </c>
+      <c r="N17" s="14">
+        <f>(K17-I17)/6</f>
+        <v/>
+      </c>
+      <c r="O17" s="14">
+        <f>N17*N17</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="18" spans="1:52">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s"/>
       <c r="D18" s="15" t="s"/>
-      <c r="E18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17" t="n">
+      <c r="E18" s="15" t="s"/>
+      <c r="F18" s="15" t="s"/>
+      <c r="G18" s="15" t="s"/>
+      <c r="H18" s="15" t="s"/>
+      <c r="I18" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="17" t="n">
+      <c r="K18" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AB18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s"/>
+      <c r="E19" s="1" t="s"/>
+      <c r="F19" s="1" t="s"/>
+      <c r="G19" s="1" t="s"/>
+      <c r="H19" s="3" t="s"/>
+      <c r="I19" s="14">
+        <f>I20</f>
+        <v/>
+      </c>
+      <c r="J19" s="14">
+        <f>J20</f>
+        <v/>
+      </c>
+      <c r="K19" s="14">
+        <f>K20</f>
+        <v/>
+      </c>
+      <c r="L19" s="1" t="s"/>
+      <c r="M19" s="14">
+        <f>(I19+4*J19+K19)/6</f>
+        <v/>
+      </c>
+      <c r="N19" s="14">
+        <f>(K19-I19)/6</f>
+        <v/>
+      </c>
+      <c r="O19" s="14">
+        <f>N19*N19</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="20" spans="1:52">
+      <c r="A20" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s"/>
-      <c r="E19" s="14">
-        <f>E20</f>
-        <v/>
-      </c>
-      <c r="F19" s="14">
-        <f>F20</f>
-        <v/>
-      </c>
-      <c r="G19" s="14">
-        <f>G20</f>
-        <v/>
-      </c>
-      <c r="H19" s="1" t="s"/>
-      <c r="I19" s="14">
-        <f>(E19+4*F19+G19)/6</f>
-        <v/>
-      </c>
-      <c r="J19" s="14">
-        <f>(G19-E19)/6</f>
-        <v/>
-      </c>
-      <c r="K19" s="14">
-        <f>J19*J19</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="20" spans="1:26">
-      <c r="A20" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s"/>
       <c r="D20" s="15" t="s"/>
-      <c r="E20" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17" t="n">
+      <c r="E20" s="15" t="s"/>
+      <c r="F20" s="15" t="s"/>
+      <c r="G20" s="15" t="s"/>
+      <c r="H20" s="15" t="s"/>
+      <c r="I20" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AB20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
-      <c r="D21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="9">
-        <f>E22+E29+E32</f>
-        <v/>
-      </c>
-      <c r="F21" s="9">
-        <f>F22+F29+F32</f>
-        <v/>
-      </c>
-      <c r="G21" s="9">
-        <f>G22+G29+G32</f>
-        <v/>
-      </c>
-      <c r="H21" s="6" t="s"/>
-      <c r="I21" s="6" t="s"/>
-      <c r="J21" s="6" t="s"/>
-      <c r="K21" s="6" t="s"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="D21" s="6" t="s"/>
+      <c r="E21" s="6" t="s"/>
+      <c r="F21" s="6" t="s"/>
+      <c r="G21" s="6" t="s"/>
+      <c r="H21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="9">
+        <f>I22+I29+I32</f>
+        <v/>
+      </c>
+      <c r="J21" s="9">
+        <f>J22+J29+J32</f>
+        <v/>
+      </c>
+      <c r="K21" s="9">
+        <f>K22+K29+K32</f>
+        <v/>
+      </c>
+      <c r="L21" s="6" t="s"/>
+      <c r="M21" s="6" t="s"/>
+      <c r="N21" s="6" t="s"/>
+      <c r="O21" s="6" t="s"/>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="11" t="s"/>
       <c r="C22" s="10" t="s"/>
-      <c r="D22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="13">
-        <f>E23+E25+E27</f>
-        <v/>
-      </c>
-      <c r="F22" s="13">
-        <f>F23+F25+F27</f>
-        <v/>
-      </c>
-      <c r="G22" s="13">
-        <f>G23+G25+G27</f>
-        <v/>
-      </c>
-      <c r="H22" s="10" t="s"/>
-      <c r="I22" s="10" t="s"/>
-      <c r="J22" s="10" t="s"/>
-      <c r="K22" s="10" t="s"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="D22" s="10" t="s"/>
+      <c r="E22" s="10" t="s"/>
+      <c r="F22" s="10" t="s"/>
+      <c r="G22" s="10" t="s"/>
+      <c r="H22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="13">
+        <f>I23+I25+I27</f>
+        <v/>
+      </c>
+      <c r="J22" s="13">
+        <f>J23+J25+J27</f>
+        <v/>
+      </c>
+      <c r="K22" s="13">
+        <f>K23+K25+K27</f>
+        <v/>
+      </c>
+      <c r="L22" s="10" t="s"/>
+      <c r="M22" s="10" t="s"/>
+      <c r="N22" s="10" t="s"/>
+      <c r="O22" s="10" t="s"/>
+    </row>
+    <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
@@ -1345,58 +1445,66 @@
       <c r="C23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s"/>
-      <c r="E23" s="14">
-        <f>E24</f>
-        <v/>
-      </c>
-      <c r="F23" s="14">
-        <f>F24</f>
-        <v/>
-      </c>
-      <c r="G23" s="14">
-        <f>G24</f>
-        <v/>
-      </c>
-      <c r="H23" s="1" t="s"/>
+      <c r="D23" s="1" t="s"/>
+      <c r="E23" s="1" t="s"/>
+      <c r="F23" s="1" t="s"/>
+      <c r="G23" s="1" t="s"/>
+      <c r="H23" s="3" t="s"/>
       <c r="I23" s="14">
-        <f>(E23+4*F23+G23)/6</f>
+        <f>I24</f>
         <v/>
       </c>
       <c r="J23" s="14">
-        <f>(G23-E23)/6</f>
+        <f>J24</f>
         <v/>
       </c>
       <c r="K23" s="14">
-        <f>J23*J23</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="24" spans="1:26">
+        <f>K24</f>
+        <v/>
+      </c>
+      <c r="L23" s="1" t="s"/>
+      <c r="M23" s="14">
+        <f>(I23+4*J23+K23)/6</f>
+        <v/>
+      </c>
+      <c r="N23" s="14">
+        <f>(K23-I23)/6</f>
+        <v/>
+      </c>
+      <c r="O23" s="14">
+        <f>N23*N23</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="24" spans="1:52">
       <c r="A24" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s"/>
       <c r="D24" s="15" t="s"/>
-      <c r="E24" s="17" t="n">
+      <c r="E24" s="15" t="s"/>
+      <c r="F24" s="15" t="s"/>
+      <c r="G24" s="15" t="s"/>
+      <c r="H24" s="15" t="s"/>
+      <c r="I24" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="17" t="n">
+      <c r="J24" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="17" t="n">
+      <c r="K24" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AB24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
@@ -1404,58 +1512,66 @@
       <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s"/>
-      <c r="E25" s="14">
-        <f>E26</f>
-        <v/>
-      </c>
-      <c r="F25" s="14">
-        <f>F26</f>
-        <v/>
-      </c>
-      <c r="G25" s="14">
-        <f>G26</f>
-        <v/>
-      </c>
-      <c r="H25" s="1" t="s"/>
+      <c r="D25" s="1" t="s"/>
+      <c r="E25" s="1" t="s"/>
+      <c r="F25" s="1" t="s"/>
+      <c r="G25" s="1" t="s"/>
+      <c r="H25" s="3" t="s"/>
       <c r="I25" s="14">
-        <f>(E25+4*F25+G25)/6</f>
+        <f>I26</f>
         <v/>
       </c>
       <c r="J25" s="14">
-        <f>(G25-E25)/6</f>
+        <f>J26</f>
         <v/>
       </c>
       <c r="K25" s="14">
-        <f>J25*J25</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="26" spans="1:26">
+        <f>K26</f>
+        <v/>
+      </c>
+      <c r="L25" s="1" t="s"/>
+      <c r="M25" s="14">
+        <f>(I25+4*J25+K25)/6</f>
+        <v/>
+      </c>
+      <c r="N25" s="14">
+        <f>(K25-I25)/6</f>
+        <v/>
+      </c>
+      <c r="O25" s="14">
+        <f>N25*N25</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="26" spans="1:52">
       <c r="A26" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s"/>
       <c r="D26" s="15" t="s"/>
-      <c r="E26" s="17" t="n">
+      <c r="E26" s="15" t="s"/>
+      <c r="F26" s="15" t="s"/>
+      <c r="G26" s="15" t="s"/>
+      <c r="H26" s="15" t="s"/>
+      <c r="I26" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="17" t="n">
+      <c r="J26" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="17" t="n">
+      <c r="K26" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AB26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
@@ -1463,58 +1579,66 @@
       <c r="C27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="3" t="s"/>
-      <c r="E27" s="14">
-        <f>E28</f>
-        <v/>
-      </c>
-      <c r="F27" s="14">
-        <f>F28</f>
-        <v/>
-      </c>
-      <c r="G27" s="14">
-        <f>G28</f>
-        <v/>
-      </c>
-      <c r="H27" s="1" t="s"/>
+      <c r="D27" s="1" t="s"/>
+      <c r="E27" s="1" t="s"/>
+      <c r="F27" s="1" t="s"/>
+      <c r="G27" s="1" t="s"/>
+      <c r="H27" s="3" t="s"/>
       <c r="I27" s="14">
-        <f>(E27+4*F27+G27)/6</f>
+        <f>I28</f>
         <v/>
       </c>
       <c r="J27" s="14">
-        <f>(G27-E27)/6</f>
+        <f>J28</f>
         <v/>
       </c>
       <c r="K27" s="14">
-        <f>J27*J27</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="28" spans="1:26">
+        <f>K28</f>
+        <v/>
+      </c>
+      <c r="L27" s="1" t="s"/>
+      <c r="M27" s="14">
+        <f>(I27+4*J27+K27)/6</f>
+        <v/>
+      </c>
+      <c r="N27" s="14">
+        <f>(K27-I27)/6</f>
+        <v/>
+      </c>
+      <c r="O27" s="14">
+        <f>N27*N27</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="28" spans="1:52">
       <c r="A28" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s"/>
       <c r="D28" s="15" t="s"/>
-      <c r="E28" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17" t="n">
+      <c r="E28" s="15" t="s"/>
+      <c r="F28" s="15" t="s"/>
+      <c r="G28" s="15" t="s"/>
+      <c r="H28" s="15" t="s"/>
+      <c r="I28" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="17" t="n">
+      <c r="K28" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AB28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
@@ -1522,80 +1646,92 @@
       <c r="C29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s"/>
-      <c r="E29" s="14">
-        <f>E30+E31</f>
-        <v/>
-      </c>
-      <c r="F29" s="14">
-        <f>F30+F31</f>
-        <v/>
-      </c>
-      <c r="G29" s="14">
-        <f>G30+G31</f>
-        <v/>
-      </c>
-      <c r="H29" s="1" t="s"/>
+      <c r="D29" s="1" t="s"/>
+      <c r="E29" s="1" t="s"/>
+      <c r="F29" s="1" t="s"/>
+      <c r="G29" s="1" t="s"/>
+      <c r="H29" s="3" t="s"/>
       <c r="I29" s="14">
-        <f>(E29+4*F29+G29)/6</f>
+        <f>I30+I31</f>
         <v/>
       </c>
       <c r="J29" s="14">
-        <f>(G29-E29)/6</f>
+        <f>J30+J31</f>
         <v/>
       </c>
       <c r="K29" s="14">
-        <f>J29*J29</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="30" spans="1:26">
+        <f>K30+K31</f>
+        <v/>
+      </c>
+      <c r="L29" s="1" t="s"/>
+      <c r="M29" s="14">
+        <f>(I29+4*J29+K29)/6</f>
+        <v/>
+      </c>
+      <c r="N29" s="14">
+        <f>(K29-I29)/6</f>
+        <v/>
+      </c>
+      <c r="O29" s="14">
+        <f>N29*N29</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="30" spans="1:52">
       <c r="A30" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s"/>
       <c r="D30" s="15" t="s"/>
-      <c r="E30" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17" t="n">
+      <c r="E30" s="15" t="s"/>
+      <c r="F30" s="15" t="s"/>
+      <c r="G30" s="15" t="s"/>
+      <c r="H30" s="15" t="s"/>
+      <c r="I30" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G30" s="17" t="n">
+      <c r="K30" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row hidden="1" r="31" spans="1:26">
+      <c r="AB30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row hidden="1" r="31" spans="1:52">
       <c r="A31" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="15" t="s"/>
       <c r="D31" s="15" t="s"/>
-      <c r="E31" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="17" t="n">
+      <c r="E31" s="15" t="s"/>
+      <c r="F31" s="15" t="s"/>
+      <c r="G31" s="15" t="s"/>
+      <c r="H31" s="15" t="s"/>
+      <c r="I31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AC31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
@@ -1603,130 +1739,150 @@
       <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="s"/>
-      <c r="E32" s="14">
-        <f>E33+E34</f>
-        <v/>
-      </c>
-      <c r="F32" s="14">
-        <f>F33+F34</f>
-        <v/>
-      </c>
-      <c r="G32" s="14">
-        <f>G33+G34</f>
-        <v/>
-      </c>
-      <c r="H32" s="1" t="s"/>
+      <c r="D32" s="1" t="s"/>
+      <c r="E32" s="1" t="s"/>
+      <c r="F32" s="1" t="s"/>
+      <c r="G32" s="1" t="s"/>
+      <c r="H32" s="3" t="s"/>
       <c r="I32" s="14">
-        <f>(E32+4*F32+G32)/6</f>
+        <f>I33+I34</f>
         <v/>
       </c>
       <c r="J32" s="14">
-        <f>(G32-E32)/6</f>
+        <f>J33+J34</f>
         <v/>
       </c>
       <c r="K32" s="14">
-        <f>J32*J32</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="33" spans="1:26">
+        <f>K33+K34</f>
+        <v/>
+      </c>
+      <c r="L32" s="1" t="s"/>
+      <c r="M32" s="14">
+        <f>(I32+4*J32+K32)/6</f>
+        <v/>
+      </c>
+      <c r="N32" s="14">
+        <f>(K32-I32)/6</f>
+        <v/>
+      </c>
+      <c r="O32" s="14">
+        <f>N32*N32</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="33" spans="1:52">
       <c r="A33" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C33" s="15" t="s"/>
       <c r="D33" s="15" t="s"/>
-      <c r="E33" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17" t="n">
+      <c r="E33" s="15" t="s"/>
+      <c r="F33" s="15" t="s"/>
+      <c r="G33" s="15" t="s"/>
+      <c r="H33" s="15" t="s"/>
+      <c r="I33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row hidden="1" r="34" spans="1:26">
+      <c r="AB33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row hidden="1" r="34" spans="1:52">
       <c r="A34" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="15" t="s"/>
       <c r="D34" s="15" t="s"/>
-      <c r="E34" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17" t="n">
+      <c r="E34" s="15" t="s"/>
+      <c r="F34" s="15" t="s"/>
+      <c r="G34" s="15" t="s"/>
+      <c r="H34" s="15" t="s"/>
+      <c r="I34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="17" t="n">
+      <c r="K34" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AC34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
-      <c r="D35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="9">
-        <f>E36+E41+E43+E45+E47</f>
-        <v/>
-      </c>
-      <c r="F35" s="9">
-        <f>F36+F41+F43+F45+F47</f>
-        <v/>
-      </c>
-      <c r="G35" s="9">
-        <f>G36+G41+G43+G45+G47</f>
-        <v/>
-      </c>
-      <c r="H35" s="6" t="s"/>
-      <c r="I35" s="6" t="s"/>
-      <c r="J35" s="6" t="s"/>
-      <c r="K35" s="6" t="s"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="D35" s="6" t="s"/>
+      <c r="E35" s="6" t="s"/>
+      <c r="F35" s="6" t="s"/>
+      <c r="G35" s="6" t="s"/>
+      <c r="H35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="9">
+        <f>I36+I41+I43+I45+I47</f>
+        <v/>
+      </c>
+      <c r="J35" s="9">
+        <f>J36+J41+J43+J45+J47</f>
+        <v/>
+      </c>
+      <c r="K35" s="9">
+        <f>K36+K41+K43+K45+K47</f>
+        <v/>
+      </c>
+      <c r="L35" s="6" t="s"/>
+      <c r="M35" s="6" t="s"/>
+      <c r="N35" s="6" t="s"/>
+      <c r="O35" s="6" t="s"/>
+    </row>
+    <row r="36" spans="1:52">
       <c r="A36" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="11" t="s"/>
       <c r="C36" s="10" t="s"/>
-      <c r="D36" s="12" t="s"/>
-      <c r="E36" s="13">
-        <f>E37+E39</f>
-        <v/>
-      </c>
-      <c r="F36" s="13">
-        <f>F37+F39</f>
-        <v/>
-      </c>
-      <c r="G36" s="13">
-        <f>G37+G39</f>
-        <v/>
-      </c>
-      <c r="H36" s="10" t="s"/>
-      <c r="I36" s="10" t="s"/>
-      <c r="J36" s="10" t="s"/>
-      <c r="K36" s="10" t="s"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="D36" s="10" t="s"/>
+      <c r="E36" s="10" t="s"/>
+      <c r="F36" s="10" t="s"/>
+      <c r="G36" s="10" t="s"/>
+      <c r="H36" s="12" t="s"/>
+      <c r="I36" s="13">
+        <f>I37+I39</f>
+        <v/>
+      </c>
+      <c r="J36" s="13">
+        <f>J37+J39</f>
+        <v/>
+      </c>
+      <c r="K36" s="13">
+        <f>K37+K39</f>
+        <v/>
+      </c>
+      <c r="L36" s="10" t="s"/>
+      <c r="M36" s="10" t="s"/>
+      <c r="N36" s="10" t="s"/>
+      <c r="O36" s="10" t="s"/>
+    </row>
+    <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
@@ -1734,58 +1890,66 @@
       <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="3" t="s"/>
-      <c r="E37" s="14">
-        <f>E38</f>
-        <v/>
-      </c>
-      <c r="F37" s="14">
-        <f>F38</f>
-        <v/>
-      </c>
-      <c r="G37" s="14">
-        <f>G38</f>
-        <v/>
-      </c>
-      <c r="H37" s="1" t="s"/>
+      <c r="D37" s="1" t="s"/>
+      <c r="E37" s="1" t="s"/>
+      <c r="F37" s="1" t="s"/>
+      <c r="G37" s="1" t="s"/>
+      <c r="H37" s="3" t="s"/>
       <c r="I37" s="14">
-        <f>(E37+4*F37+G37)/6</f>
+        <f>I38</f>
         <v/>
       </c>
       <c r="J37" s="14">
-        <f>(G37-E37)/6</f>
+        <f>J38</f>
         <v/>
       </c>
       <c r="K37" s="14">
-        <f>J37*J37</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="38" spans="1:26">
+        <f>K38</f>
+        <v/>
+      </c>
+      <c r="L37" s="1" t="s"/>
+      <c r="M37" s="14">
+        <f>(I37+4*J37+K37)/6</f>
+        <v/>
+      </c>
+      <c r="N37" s="14">
+        <f>(K37-I37)/6</f>
+        <v/>
+      </c>
+      <c r="O37" s="14">
+        <f>N37*N37</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="38" spans="1:52">
       <c r="A38" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="15" t="s"/>
       <c r="D38" s="15" t="s"/>
-      <c r="E38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="17" t="n">
+      <c r="E38" s="15" t="s"/>
+      <c r="F38" s="15" t="s"/>
+      <c r="G38" s="15" t="s"/>
+      <c r="H38" s="15" t="s"/>
+      <c r="I38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="17" t="n">
+      <c r="K38" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AC38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
@@ -1793,58 +1957,66 @@
       <c r="C39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="3" t="s"/>
-      <c r="E39" s="14">
-        <f>E40</f>
-        <v/>
-      </c>
-      <c r="F39" s="14">
-        <f>F40</f>
-        <v/>
-      </c>
-      <c r="G39" s="14">
-        <f>G40</f>
-        <v/>
-      </c>
-      <c r="H39" s="1" t="s"/>
+      <c r="D39" s="1" t="s"/>
+      <c r="E39" s="1" t="s"/>
+      <c r="F39" s="1" t="s"/>
+      <c r="G39" s="1" t="s"/>
+      <c r="H39" s="3" t="s"/>
       <c r="I39" s="14">
-        <f>(E39+4*F39+G39)/6</f>
+        <f>I40</f>
         <v/>
       </c>
       <c r="J39" s="14">
-        <f>(G39-E39)/6</f>
+        <f>J40</f>
         <v/>
       </c>
       <c r="K39" s="14">
-        <f>J39*J39</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="40" spans="1:26">
+        <f>K40</f>
+        <v/>
+      </c>
+      <c r="L39" s="1" t="s"/>
+      <c r="M39" s="14">
+        <f>(I39+4*J39+K39)/6</f>
+        <v/>
+      </c>
+      <c r="N39" s="14">
+        <f>(K39-I39)/6</f>
+        <v/>
+      </c>
+      <c r="O39" s="14">
+        <f>N39*N39</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="40" spans="1:52">
       <c r="A40" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="15" t="s"/>
       <c r="D40" s="15" t="s"/>
-      <c r="E40" s="17" t="n">
+      <c r="E40" s="15" t="s"/>
+      <c r="F40" s="15" t="s"/>
+      <c r="G40" s="15" t="s"/>
+      <c r="H40" s="15" t="s"/>
+      <c r="I40" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F40" s="17" t="n">
+      <c r="J40" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G40" s="17" t="n">
+      <c r="K40" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AC40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
@@ -1852,58 +2024,66 @@
       <c r="C41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s"/>
-      <c r="E41" s="14">
-        <f>E42</f>
-        <v/>
-      </c>
-      <c r="F41" s="14">
-        <f>F42</f>
-        <v/>
-      </c>
-      <c r="G41" s="14">
-        <f>G42</f>
-        <v/>
-      </c>
-      <c r="H41" s="1" t="s"/>
+      <c r="D41" s="1" t="s"/>
+      <c r="E41" s="1" t="s"/>
+      <c r="F41" s="1" t="s"/>
+      <c r="G41" s="1" t="s"/>
+      <c r="H41" s="3" t="s"/>
       <c r="I41" s="14">
-        <f>(E41+4*F41+G41)/6</f>
+        <f>I42</f>
         <v/>
       </c>
       <c r="J41" s="14">
-        <f>(G41-E41)/6</f>
+        <f>J42</f>
         <v/>
       </c>
       <c r="K41" s="14">
-        <f>J41*J41</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="42" spans="1:26">
+        <f>K42</f>
+        <v/>
+      </c>
+      <c r="L41" s="1" t="s"/>
+      <c r="M41" s="14">
+        <f>(I41+4*J41+K41)/6</f>
+        <v/>
+      </c>
+      <c r="N41" s="14">
+        <f>(K41-I41)/6</f>
+        <v/>
+      </c>
+      <c r="O41" s="14">
+        <f>N41*N41</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="42" spans="1:52">
       <c r="A42" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="15" t="s"/>
       <c r="D42" s="15" t="s"/>
-      <c r="E42" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="17" t="n">
+      <c r="E42" s="15" t="s"/>
+      <c r="F42" s="15" t="s"/>
+      <c r="G42" s="15" t="s"/>
+      <c r="H42" s="15" t="s"/>
+      <c r="I42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="M42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
@@ -1911,58 +2091,66 @@
       <c r="C43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s"/>
-      <c r="E43" s="14">
-        <f>E44</f>
-        <v/>
-      </c>
-      <c r="F43" s="14">
-        <f>F44</f>
-        <v/>
-      </c>
-      <c r="G43" s="14">
-        <f>G44</f>
-        <v/>
-      </c>
-      <c r="H43" s="1" t="s"/>
+      <c r="D43" s="1" t="s"/>
+      <c r="E43" s="1" t="s"/>
+      <c r="F43" s="1" t="s"/>
+      <c r="G43" s="1" t="s"/>
+      <c r="H43" s="3" t="s"/>
       <c r="I43" s="14">
-        <f>(E43+4*F43+G43)/6</f>
+        <f>I44</f>
         <v/>
       </c>
       <c r="J43" s="14">
-        <f>(G43-E43)/6</f>
+        <f>J44</f>
         <v/>
       </c>
       <c r="K43" s="14">
-        <f>J43*J43</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="44" spans="1:26">
+        <f>K44</f>
+        <v/>
+      </c>
+      <c r="L43" s="1" t="s"/>
+      <c r="M43" s="14">
+        <f>(I43+4*J43+K43)/6</f>
+        <v/>
+      </c>
+      <c r="N43" s="14">
+        <f>(K43-I43)/6</f>
+        <v/>
+      </c>
+      <c r="O43" s="14">
+        <f>N43*N43</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="44" spans="1:52">
       <c r="A44" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C44" s="15" t="s"/>
       <c r="D44" s="15" t="s"/>
-      <c r="E44" s="17" t="n">
+      <c r="E44" s="15" t="s"/>
+      <c r="F44" s="15" t="s"/>
+      <c r="G44" s="15" t="s"/>
+      <c r="H44" s="15" t="s"/>
+      <c r="I44" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="17" t="n">
+      <c r="J44" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="G44" s="17" t="n">
+      <c r="K44" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="N44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AB44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
@@ -1970,58 +2158,66 @@
       <c r="C45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="s"/>
-      <c r="E45" s="14">
-        <f>E46</f>
-        <v/>
-      </c>
-      <c r="F45" s="14">
-        <f>F46</f>
-        <v/>
-      </c>
-      <c r="G45" s="14">
-        <f>G46</f>
-        <v/>
-      </c>
-      <c r="H45" s="1" t="s"/>
+      <c r="D45" s="1" t="s"/>
+      <c r="E45" s="1" t="s"/>
+      <c r="F45" s="1" t="s"/>
+      <c r="G45" s="1" t="s"/>
+      <c r="H45" s="3" t="s"/>
       <c r="I45" s="14">
-        <f>(E45+4*F45+G45)/6</f>
+        <f>I46</f>
         <v/>
       </c>
       <c r="J45" s="14">
-        <f>(G45-E45)/6</f>
+        <f>J46</f>
         <v/>
       </c>
       <c r="K45" s="14">
-        <f>J45*J45</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="46" spans="1:26">
+        <f>K46</f>
+        <v/>
+      </c>
+      <c r="L45" s="1" t="s"/>
+      <c r="M45" s="14">
+        <f>(I45+4*J45+K45)/6</f>
+        <v/>
+      </c>
+      <c r="N45" s="14">
+        <f>(K45-I45)/6</f>
+        <v/>
+      </c>
+      <c r="O45" s="14">
+        <f>N45*N45</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="46" spans="1:52">
       <c r="A46" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="15" t="s"/>
       <c r="D46" s="15" t="s"/>
-      <c r="E46" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="17" t="n">
+      <c r="E46" s="15" t="s"/>
+      <c r="F46" s="15" t="s"/>
+      <c r="G46" s="15" t="s"/>
+      <c r="H46" s="15" t="s"/>
+      <c r="I46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="N46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AB46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
@@ -2029,86 +2225,98 @@
       <c r="C47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="14">
-        <f>E48</f>
-        <v/>
-      </c>
-      <c r="F47" s="14">
-        <f>F48</f>
-        <v/>
-      </c>
-      <c r="G47" s="14">
-        <f>G48</f>
-        <v/>
-      </c>
-      <c r="H47" s="1" t="s"/>
+      <c r="D47" s="1" t="s"/>
+      <c r="E47" s="1" t="s"/>
+      <c r="F47" s="1" t="s"/>
+      <c r="G47" s="1" t="s"/>
+      <c r="H47" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="I47" s="14">
-        <f>(E47+4*F47+G47)/6</f>
+        <f>I48</f>
         <v/>
       </c>
       <c r="J47" s="14">
-        <f>(G47-E47)/6</f>
+        <f>J48</f>
         <v/>
       </c>
       <c r="K47" s="14">
-        <f>J47*J47</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="48" spans="1:26">
+        <f>K48</f>
+        <v/>
+      </c>
+      <c r="L47" s="1" t="s"/>
+      <c r="M47" s="14">
+        <f>(I47+4*J47+K47)/6</f>
+        <v/>
+      </c>
+      <c r="N47" s="14">
+        <f>(K47-I47)/6</f>
+        <v/>
+      </c>
+      <c r="O47" s="14">
+        <f>N47*N47</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="48" spans="1:52">
       <c r="A48" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="15" t="s"/>
       <c r="D48" s="15" t="s"/>
-      <c r="E48" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="17" t="n">
+      <c r="E48" s="15" t="s"/>
+      <c r="F48" s="15" t="s"/>
+      <c r="G48" s="15" t="s"/>
+      <c r="H48" s="15" t="s"/>
+      <c r="I48" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="N48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AB48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
-      <c r="D49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="9">
-        <f>E50+E52+E54</f>
-        <v/>
-      </c>
-      <c r="F49" s="9">
-        <f>F50+F52+F54</f>
-        <v/>
-      </c>
-      <c r="G49" s="9">
-        <f>G50+G52+G54</f>
-        <v/>
-      </c>
-      <c r="H49" s="6" t="s"/>
-      <c r="I49" s="6" t="s"/>
-      <c r="J49" s="6" t="s"/>
-      <c r="K49" s="6" t="s"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="D49" s="6" t="s"/>
+      <c r="E49" s="6" t="s"/>
+      <c r="F49" s="6" t="s"/>
+      <c r="G49" s="6" t="s"/>
+      <c r="H49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="9">
+        <f>I50+I52+I54</f>
+        <v/>
+      </c>
+      <c r="J49" s="9">
+        <f>J50+J52+J54</f>
+        <v/>
+      </c>
+      <c r="K49" s="9">
+        <f>K50+K52+K54</f>
+        <v/>
+      </c>
+      <c r="L49" s="6" t="s"/>
+      <c r="M49" s="6" t="s"/>
+      <c r="N49" s="6" t="s"/>
+      <c r="O49" s="6" t="s"/>
+    </row>
+    <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
@@ -2116,58 +2324,66 @@
       <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="3" t="s"/>
-      <c r="E50" s="14">
-        <f>E51</f>
-        <v/>
-      </c>
-      <c r="F50" s="14">
-        <f>F51</f>
-        <v/>
-      </c>
-      <c r="G50" s="14">
-        <f>G51</f>
-        <v/>
-      </c>
-      <c r="H50" s="1" t="s"/>
+      <c r="D50" s="1" t="s"/>
+      <c r="E50" s="1" t="s"/>
+      <c r="F50" s="1" t="s"/>
+      <c r="G50" s="1" t="s"/>
+      <c r="H50" s="3" t="s"/>
       <c r="I50" s="14">
-        <f>(E50+4*F50+G50)/6</f>
+        <f>I51</f>
         <v/>
       </c>
       <c r="J50" s="14">
-        <f>(G50-E50)/6</f>
+        <f>J51</f>
         <v/>
       </c>
       <c r="K50" s="14">
-        <f>J50*J50</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="51" spans="1:26">
+        <f>K51</f>
+        <v/>
+      </c>
+      <c r="L50" s="1" t="s"/>
+      <c r="M50" s="14">
+        <f>(I50+4*J50+K50)/6</f>
+        <v/>
+      </c>
+      <c r="N50" s="14">
+        <f>(K50-I50)/6</f>
+        <v/>
+      </c>
+      <c r="O50" s="14">
+        <f>N50*N50</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="51" spans="1:52">
       <c r="A51" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C51" s="15" t="s"/>
       <c r="D51" s="15" t="s"/>
-      <c r="E51" s="17" t="n">
+      <c r="E51" s="15" t="s"/>
+      <c r="F51" s="15" t="s"/>
+      <c r="G51" s="15" t="s"/>
+      <c r="H51" s="15" t="s"/>
+      <c r="I51" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F51" s="17" t="n">
+      <c r="J51" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G51" s="17" t="n">
+      <c r="K51" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="N51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AB51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
@@ -2175,133 +2391,140 @@
       <c r="C52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="3" t="s"/>
-      <c r="E52" s="14">
-        <f>E53</f>
-        <v/>
-      </c>
-      <c r="F52" s="14">
-        <f>F53</f>
-        <v/>
-      </c>
-      <c r="G52" s="14">
-        <f>G53</f>
-        <v/>
-      </c>
-      <c r="H52" s="1" t="s"/>
+      <c r="D52" s="1" t="s"/>
+      <c r="E52" s="1" t="s"/>
+      <c r="F52" s="1" t="s"/>
+      <c r="G52" s="1" t="s"/>
+      <c r="H52" s="3" t="s"/>
       <c r="I52" s="14">
-        <f>(E52+4*F52+G52)/6</f>
+        <f>I53</f>
         <v/>
       </c>
       <c r="J52" s="14">
-        <f>(G52-E52)/6</f>
+        <f>J53</f>
         <v/>
       </c>
       <c r="K52" s="14">
-        <f>J52*J52</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="53" spans="1:26">
+        <f>K53</f>
+        <v/>
+      </c>
+      <c r="L52" s="1" t="s"/>
+      <c r="M52" s="14">
+        <f>(I52+4*J52+K52)/6</f>
+        <v/>
+      </c>
+      <c r="N52" s="14">
+        <f>(K52-I52)/6</f>
+        <v/>
+      </c>
+      <c r="O52" s="14">
+        <f>N52*N52</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="53" spans="1:52">
       <c r="A53" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="15" t="s"/>
       <c r="D53" s="15" t="s"/>
-      <c r="E53" s="17" t="n">
+      <c r="E53" s="15" t="s"/>
+      <c r="F53" s="15" t="s"/>
+      <c r="G53" s="15" t="s"/>
+      <c r="H53" s="15" t="s"/>
+      <c r="I53" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F53" s="17" t="n">
+      <c r="J53" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="G53" s="17" t="n">
+      <c r="K53" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="N53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AB53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s"/>
+      <c r="E54" s="1" t="s"/>
+      <c r="F54" s="1" t="s"/>
+      <c r="G54" s="1" t="s"/>
+      <c r="H54" s="3" t="s"/>
+      <c r="I54" s="14">
+        <f>I55</f>
+        <v/>
+      </c>
+      <c r="J54" s="14">
+        <f>J55</f>
+        <v/>
+      </c>
+      <c r="K54" s="14">
+        <f>K55</f>
+        <v/>
+      </c>
+      <c r="L54" s="1" t="s"/>
+      <c r="M54" s="14">
+        <f>(I54+4*J54+K54)/6</f>
+        <v/>
+      </c>
+      <c r="N54" s="14">
+        <f>(K54-I54)/6</f>
+        <v/>
+      </c>
+      <c r="O54" s="14">
+        <f>N54*N54</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="55" spans="1:52">
+      <c r="A55" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s"/>
-      <c r="E54" s="14">
-        <f>E55</f>
-        <v/>
-      </c>
-      <c r="F54" s="14">
-        <f>F55</f>
-        <v/>
-      </c>
-      <c r="G54" s="14">
-        <f>G55</f>
-        <v/>
-      </c>
-      <c r="H54" s="1" t="s"/>
-      <c r="I54" s="14">
-        <f>(E54+4*F54+G54)/6</f>
-        <v/>
-      </c>
-      <c r="J54" s="14">
-        <f>(G54-E54)/6</f>
-        <v/>
-      </c>
-      <c r="K54" s="14">
-        <f>J54*J54</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="55" spans="1:26">
-      <c r="A55" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="B55" s="16" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="15" t="s"/>
       <c r="D55" s="15" t="s"/>
-      <c r="E55" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="17" t="n">
+      <c r="E55" s="15" t="s"/>
+      <c r="F55" s="15" t="s"/>
+      <c r="G55" s="15" t="s"/>
+      <c r="H55" s="15" t="s"/>
+      <c r="I55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="17" t="n">
+      <c r="K55" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="O55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AC55" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
       <c r="A57" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="18" t="s"/>
       <c r="C57" s="18" t="s"/>
       <c r="D57" s="18" t="s"/>
-      <c r="E57" s="19">
-        <f>SUMPRODUCT(E2:E56,B2:B56)</f>
-        <v/>
-      </c>
-      <c r="F57" s="19">
-        <f>SUMPRODUCT(F2:F56,B2:B56)</f>
-        <v/>
-      </c>
-      <c r="G57" s="19">
-        <f>SUMPRODUCT(G2:G56,B2:B56)</f>
-        <v/>
-      </c>
+      <c r="E57" s="18" t="s"/>
+      <c r="F57" s="18" t="s"/>
+      <c r="G57" s="18" t="s"/>
       <c r="H57" s="18" t="s"/>
       <c r="I57" s="19">
         <f>SUMPRODUCT(I2:I56,B2:B56)</f>
@@ -2315,110 +2538,126 @@
         <f>SUMPRODUCT(K2:K56,B2:B56)</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="L57" s="18" t="s"/>
+      <c r="M57" s="19">
+        <f>SUMPRODUCT(M2:M56,B2:B56)</f>
+        <v/>
+      </c>
+      <c r="N57" s="19">
+        <f>SUMPRODUCT(N2:N56,B2:B56)</f>
+        <v/>
+      </c>
+      <c r="O57" s="19">
+        <f>SUMPRODUCT(O2:O56,B2:B56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
       <c r="A58" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="18" t="s"/>
       <c r="C58" s="18" t="s"/>
       <c r="D58" s="18" t="s"/>
-      <c r="E58" s="19">
-        <f>SUMPRODUCT(E2:E56,M2:M56)</f>
-        <v/>
-      </c>
-      <c r="F58" s="19">
-        <f>SUMPRODUCT(F2:F56,M2:M56)</f>
-        <v/>
-      </c>
-      <c r="G58" s="19">
-        <f>SUMPRODUCT(G2:G56,M2:M56)</f>
-        <v/>
-      </c>
+      <c r="E58" s="18" t="s"/>
+      <c r="F58" s="18" t="s"/>
+      <c r="G58" s="18" t="s"/>
+      <c r="H58" s="18" t="s"/>
       <c r="I58" s="19">
-        <f>(E58+4*F58+G58)/6</f>
-        <v/>
-      </c>
-      <c r="J58" s="20">
-        <f>(I58/I57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <f>SUMPRODUCT(I2:I56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="J58" s="19">
+        <f>SUMPRODUCT(J2:J56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="K58" s="19">
+        <f>SUMPRODUCT(K2:K56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="M58" s="19">
+        <f>(I58+4*J58+K58)/6</f>
+        <v/>
+      </c>
+      <c r="N58" s="20">
+        <f>(M58/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
       <c r="A59" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="18" t="s"/>
       <c r="C59" s="18" t="s"/>
       <c r="D59" s="18" t="s"/>
-      <c r="E59" s="19">
-        <f>SUMPRODUCT(E2:E56,N2:N56)</f>
-        <v/>
-      </c>
-      <c r="F59" s="19">
-        <f>SUMPRODUCT(F2:F56,N2:N56)</f>
-        <v/>
-      </c>
-      <c r="G59" s="19">
-        <f>SUMPRODUCT(G2:G56,N2:N56)</f>
-        <v/>
-      </c>
+      <c r="E59" s="18" t="s"/>
+      <c r="F59" s="18" t="s"/>
+      <c r="G59" s="18" t="s"/>
+      <c r="H59" s="18" t="s"/>
       <c r="I59" s="19">
-        <f>(E59+4*F59+G59)/6</f>
-        <v/>
-      </c>
-      <c r="J59" s="20">
-        <f>(I59/I57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <f>SUMPRODUCT(I2:I56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="J59" s="19">
+        <f>SUMPRODUCT(J2:J56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="K59" s="19">
+        <f>SUMPRODUCT(K2:K56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="M59" s="19">
+        <f>(I59+4*J59+K59)/6</f>
+        <v/>
+      </c>
+      <c r="N59" s="20">
+        <f>(M59/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
       <c r="A60" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="18" t="s"/>
       <c r="C60" s="18" t="s"/>
       <c r="D60" s="18" t="s"/>
-      <c r="E60" s="19">
-        <f>SUMPRODUCT(E2:E56,O2:O56)</f>
-        <v/>
-      </c>
-      <c r="F60" s="19">
-        <f>SUMPRODUCT(F2:F56,O2:O56)</f>
-        <v/>
-      </c>
-      <c r="G60" s="19">
-        <f>SUMPRODUCT(G2:G56,O2:O56)</f>
-        <v/>
-      </c>
+      <c r="E60" s="18" t="s"/>
+      <c r="F60" s="18" t="s"/>
+      <c r="G60" s="18" t="s"/>
+      <c r="H60" s="18" t="s"/>
       <c r="I60" s="19">
-        <f>(E60+4*F60+G60)/6</f>
-        <v/>
-      </c>
-      <c r="J60" s="20">
-        <f>(I60/I57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <f>SUMPRODUCT(I2:I56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="J60" s="19">
+        <f>SUMPRODUCT(J2:J56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="K60" s="19">
+        <f>SUMPRODUCT(K2:K56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="M60" s="19">
+        <f>(I60+4*J60+K60)/6</f>
+        <v/>
+      </c>
+      <c r="N60" s="20">
+        <f>(M60/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
       <c r="A62" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" s="18" t="s"/>
       <c r="C62" s="18" t="s"/>
       <c r="D62" s="18" t="s"/>
-      <c r="E62" s="19">
-        <f>SUMPRODUCT(E2:E56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="F62" s="19">
-        <f>SUMPRODUCT(F2:F56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="G62" s="19">
-        <f>SUMPRODUCT(G2:G56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
+      <c r="E62" s="18" t="s"/>
+      <c r="F62" s="18" t="s"/>
+      <c r="G62" s="18" t="s"/>
       <c r="H62" s="18" t="s"/>
       <c r="I62" s="19">
         <f>SUMPRODUCT(I2:I56,B2:B56,C2:C56)</f>
@@ -2432,108 +2671,129 @@
         <f>SUMPRODUCT(K2:K56,B2:B56,C2:C56)</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="L62" s="18" t="s"/>
+      <c r="M62" s="19">
+        <f>SUMPRODUCT(M2:M56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="N62" s="19">
+        <f>SUMPRODUCT(N2:N56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="O62" s="19">
+        <f>SUMPRODUCT(O2:O56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
       <c r="A64" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" s="14">
-        <f>SQRT(K62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+        <f>SQRT(O62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:52">
       <c r="A65" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52">
       <c r="A66" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C66" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:52">
       <c r="A67" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="14" t="n">
+        <v>62</v>
+      </c>
+      <c r="C67" s="22" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:52">
       <c r="A68" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="C68" s="22" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:52">
       <c r="A69" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C69" s="22" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:52">
       <c r="A70" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
+        <v>65</v>
+      </c>
+      <c r="C70" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52">
       <c r="A71" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:52">
       <c r="A72" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" s="14">
         <f>SUM(C66:C70)*C71</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:26">
-      <c r="A73" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="18" t="s"/>
-      <c r="C73" s="19">
-        <f>I62-2*C64</f>
-        <v/>
-      </c>
-      <c r="D73" s="22">
-        <f>C73*C72</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:52">
       <c r="A74" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="18" t="s"/>
       <c r="C74" s="19">
-        <f>I62+2*C64</f>
-        <v/>
-      </c>
-      <c r="D74" s="22">
+        <f>M62-2*C64</f>
+        <v/>
+      </c>
+      <c r="D74" s="18" t="s"/>
+      <c r="E74" s="18" t="s"/>
+      <c r="F74" s="18" t="s"/>
+      <c r="G74" s="18" t="s"/>
+      <c r="H74" s="23">
         <f>C74*C72</f>
         <v/>
       </c>
     </row>
+    <row r="75" spans="1:52">
+      <c r="A75" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="18" t="s"/>
+      <c r="C75" s="19">
+        <f>M62+2*C64</f>
+        <v/>
+      </c>
+      <c r="D75" s="18" t="s"/>
+      <c r="E75" s="18" t="s"/>
+      <c r="F75" s="18" t="s"/>
+      <c r="G75" s="18" t="s"/>
+      <c r="H75" s="23">
+        <f>C75*C72</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K56">
+  <autoFilter ref="A1:O56">
     <filterColumn colId="1">
       <filters blank="1">
         <filter val="1"/>
@@ -2542,13 +2802,13 @@
   </autoFilter>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B56" type="list">
-      <formula1>$Z$1:$Z$3</formula1>
+      <formula1>$AZ$1:$AZ$3</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C2 C3:C3 C12:C12 C21:C21 C22:C22 C35:C35 C36:C36 C49:C49" type="list">
       <formula1/>
     </dataValidation>
     <dataValidation allowBlank="0" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="C4:C4 C5:C5 C6:C6 C7:C7 C8:C8 C9:C9 C10:C10 C11:C11 C13:C13 C14:C14 C15:C15 C16:C16 C17:C17 C18:C18 C19:C19 C20:C20 C23:C23 C24:C24 C25:C25 C26:C26 C27:C27 C28:C28 C29:C29 C30:C30 C31:C31 C32:C32 C33:C33 C34:C34 C37:C37 C38:C38 C39:C39 C40:C40 C41:C41 C42:C42 C43:C43 C44:C44 C45:C45 C46:C46 C47:C47 C48:C48 C50:C50 C51:C51 C52:C52 C53:C53 C54:C54 C55:C55" type="list">
-      <formula1>$Z$2:$Z$3</formula1>
+      <formula1>$AZ$2:$AZ$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/example/Estimation Tool.mm.mvp.ff.xlsx
+++ b/example/Estimation Tool.mm.mvp.ff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -51,13 +51,7 @@
     <t>Sq</t>
   </si>
   <si>
-    <t>(adm)</t>
-  </si>
-  <si>
-    <t>(analysis)</t>
-  </si>
-  <si>
-    <t>(coding)</t>
+    <t>Role</t>
   </si>
   <si>
     <t>Stage 1: Implement the Idea</t>
@@ -692,9 +686,7 @@
     <col customWidth="1" max="13" min="13" style="4" width="8"/>
     <col customWidth="1" max="14" min="14" style="4" width="8"/>
     <col customWidth="1" max="15" min="15" style="4" width="8"/>
-    <col customWidth="1" hidden="1" max="27" min="27" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="28" min="28" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="29" min="29" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="16" min="16" style="1" width="3"/>
     <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
@@ -736,20 +728,14 @@
       <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="AZ1" s="2" t="s"/>
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
@@ -758,7 +744,7 @@
       <c r="F2" s="6" t="s"/>
       <c r="G2" s="6" t="s"/>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="9">
         <f>I3+I12+I17+I19</f>
@@ -776,13 +762,14 @@
       <c r="M2" s="6" t="s"/>
       <c r="N2" s="6" t="s"/>
       <c r="O2" s="6" t="s"/>
+      <c r="P2" s="6" t="s"/>
       <c r="AZ2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s"/>
       <c r="C3" s="10" t="s"/>
@@ -807,13 +794,14 @@
       <c r="M3" s="10" t="s"/>
       <c r="N3" s="10" t="s"/>
       <c r="O3" s="10" t="s"/>
+      <c r="P3" s="10" t="s"/>
       <c r="AZ3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
@@ -851,10 +839,11 @@
         <f>N4*N4</f>
         <v/>
       </c>
+      <c r="P4" s="1" t="s"/>
     </row>
     <row hidden="1" r="5" spans="1:52">
       <c r="A5" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="16" t="n">
         <v>0</v>
@@ -874,13 +863,14 @@
       <c r="K5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>1</v>
+      <c r="P5" s="4">
+        <f>TRIM(A5)</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
@@ -918,10 +908,11 @@
         <f>N6*N6</f>
         <v/>
       </c>
+      <c r="P6" s="1" t="s"/>
     </row>
     <row hidden="1" r="7" spans="1:52">
       <c r="A7" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="16" t="n">
         <v>0</v>
@@ -941,13 +932,14 @@
       <c r="K7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="AB7" s="4" t="n">
-        <v>1</v>
+      <c r="P7" s="4">
+        <f>TRIM(A7)</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
@@ -985,10 +977,11 @@
         <f>N8*N8</f>
         <v/>
       </c>
+      <c r="P8" s="1" t="s"/>
     </row>
     <row hidden="1" r="9" spans="1:52">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="16" t="n">
         <v>0</v>
@@ -1008,13 +1001,14 @@
       <c r="K9" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="AB9" s="4" t="n">
-        <v>1</v>
+      <c r="P9" s="4">
+        <f>TRIM(A9)</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
@@ -1052,10 +1046,11 @@
         <f>N10*N10</f>
         <v/>
       </c>
+      <c r="P10" s="1" t="s"/>
     </row>
     <row hidden="1" r="11" spans="1:52">
       <c r="A11" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="16" t="n">
         <v>0</v>
@@ -1075,13 +1070,14 @@
       <c r="K11" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="AB11" s="4" t="n">
-        <v>1</v>
+      <c r="P11" s="4">
+        <f>TRIM(A11)</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11" t="s"/>
       <c r="C12" s="10" t="s"/>
@@ -1106,10 +1102,11 @@
       <c r="M12" s="10" t="s"/>
       <c r="N12" s="10" t="s"/>
       <c r="O12" s="10" t="s"/>
+      <c r="P12" s="10" t="s"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
@@ -1147,10 +1144,11 @@
         <f>N13*N13</f>
         <v/>
       </c>
+      <c r="P13" s="1" t="s"/>
     </row>
     <row hidden="1" r="14" spans="1:52">
       <c r="A14" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>0</v>
@@ -1170,13 +1168,14 @@
       <c r="K14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AC14" s="4" t="n">
-        <v>1</v>
+      <c r="P14" s="4">
+        <f>TRIM(A14)</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -1214,10 +1213,11 @@
         <f>N15*N15</f>
         <v/>
       </c>
+      <c r="P15" s="1" t="s"/>
     </row>
     <row hidden="1" r="16" spans="1:52">
       <c r="A16" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>0</v>
@@ -1237,13 +1237,14 @@
       <c r="K16" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="AC16" s="4" t="n">
-        <v>1</v>
+      <c r="P16" s="4">
+        <f>TRIM(A16)</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -1281,10 +1282,11 @@
         <f>N17*N17</f>
         <v/>
       </c>
+      <c r="P17" s="1" t="s"/>
     </row>
     <row hidden="1" r="18" spans="1:52">
       <c r="A18" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>0</v>
@@ -1304,13 +1306,14 @@
       <c r="K18" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="AB18" s="4" t="n">
-        <v>1</v>
+      <c r="P18" s="4">
+        <f>TRIM(A18)</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -1348,10 +1351,11 @@
         <f>N19*N19</f>
         <v/>
       </c>
+      <c r="P19" s="1" t="s"/>
     </row>
     <row hidden="1" r="20" spans="1:52">
       <c r="A20" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>0</v>
@@ -1371,13 +1375,14 @@
       <c r="K20" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB20" s="4" t="n">
-        <v>1</v>
+      <c r="P20" s="4">
+        <f>TRIM(A20)</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
@@ -1386,7 +1391,7 @@
       <c r="F21" s="6" t="s"/>
       <c r="G21" s="6" t="s"/>
       <c r="H21" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9">
         <f>I22+I29+I32</f>
@@ -1404,10 +1409,11 @@
       <c r="M21" s="6" t="s"/>
       <c r="N21" s="6" t="s"/>
       <c r="O21" s="6" t="s"/>
+      <c r="P21" s="6" t="s"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="11" t="s"/>
       <c r="C22" s="10" t="s"/>
@@ -1416,7 +1422,7 @@
       <c r="F22" s="10" t="s"/>
       <c r="G22" s="10" t="s"/>
       <c r="H22" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I22" s="13">
         <f>I23+I25+I27</f>
@@ -1434,10 +1440,11 @@
       <c r="M22" s="10" t="s"/>
       <c r="N22" s="10" t="s"/>
       <c r="O22" s="10" t="s"/>
+      <c r="P22" s="10" t="s"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
@@ -1475,10 +1482,11 @@
         <f>N23*N23</f>
         <v/>
       </c>
+      <c r="P23" s="1" t="s"/>
     </row>
     <row hidden="1" r="24" spans="1:52">
       <c r="A24" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" s="16" t="n">
         <v>0</v>
@@ -1498,13 +1506,14 @@
       <c r="K24" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="AB24" s="4" t="n">
-        <v>1</v>
+      <c r="P24" s="4">
+        <f>TRIM(A24)</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
@@ -1542,10 +1551,11 @@
         <f>N25*N25</f>
         <v/>
       </c>
+      <c r="P25" s="1" t="s"/>
     </row>
     <row hidden="1" r="26" spans="1:52">
       <c r="A26" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>0</v>
@@ -1565,13 +1575,14 @@
       <c r="K26" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="AB26" s="4" t="n">
-        <v>1</v>
+      <c r="P26" s="4">
+        <f>TRIM(A26)</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
@@ -1609,10 +1620,11 @@
         <f>N27*N27</f>
         <v/>
       </c>
+      <c r="P27" s="1" t="s"/>
     </row>
     <row hidden="1" r="28" spans="1:52">
       <c r="A28" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>0</v>
@@ -1632,13 +1644,14 @@
       <c r="K28" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB28" s="4" t="n">
-        <v>1</v>
+      <c r="P28" s="4">
+        <f>TRIM(A28)</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
@@ -1676,10 +1689,11 @@
         <f>N29*N29</f>
         <v/>
       </c>
+      <c r="P29" s="1" t="s"/>
     </row>
     <row hidden="1" r="30" spans="1:52">
       <c r="A30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>0</v>
@@ -1699,13 +1713,14 @@
       <c r="K30" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB30" s="4" t="n">
-        <v>1</v>
+      <c r="P30" s="4">
+        <f>TRIM(A30)</f>
+        <v/>
       </c>
     </row>
     <row hidden="1" r="31" spans="1:52">
       <c r="A31" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>0</v>
@@ -1725,13 +1740,14 @@
       <c r="K31" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="AC31" s="4" t="n">
-        <v>1</v>
+      <c r="P31" s="4">
+        <f>TRIM(A31)</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
@@ -1769,10 +1785,11 @@
         <f>N32*N32</f>
         <v/>
       </c>
+      <c r="P32" s="1" t="s"/>
     </row>
     <row hidden="1" r="33" spans="1:52">
       <c r="A33" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>0</v>
@@ -1792,13 +1809,14 @@
       <c r="K33" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB33" s="4" t="n">
-        <v>1</v>
+      <c r="P33" s="4">
+        <f>TRIM(A33)</f>
+        <v/>
       </c>
     </row>
     <row hidden="1" r="34" spans="1:52">
       <c r="A34" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>0</v>
@@ -1818,13 +1836,14 @@
       <c r="K34" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="AC34" s="4" t="n">
-        <v>1</v>
+      <c r="P34" s="4">
+        <f>TRIM(A34)</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
@@ -1833,7 +1852,7 @@
       <c r="F35" s="6" t="s"/>
       <c r="G35" s="6" t="s"/>
       <c r="H35" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9">
         <f>I36+I41+I43+I45+I47</f>
@@ -1851,10 +1870,11 @@
       <c r="M35" s="6" t="s"/>
       <c r="N35" s="6" t="s"/>
       <c r="O35" s="6" t="s"/>
+      <c r="P35" s="6" t="s"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="11" t="s"/>
       <c r="C36" s="10" t="s"/>
@@ -1879,10 +1899,11 @@
       <c r="M36" s="10" t="s"/>
       <c r="N36" s="10" t="s"/>
       <c r="O36" s="10" t="s"/>
+      <c r="P36" s="10" t="s"/>
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
@@ -1920,10 +1941,11 @@
         <f>N37*N37</f>
         <v/>
       </c>
+      <c r="P37" s="1" t="s"/>
     </row>
     <row hidden="1" r="38" spans="1:52">
       <c r="A38" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="16" t="n">
         <v>0</v>
@@ -1943,13 +1965,14 @@
       <c r="K38" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="AC38" s="4" t="n">
-        <v>1</v>
+      <c r="P38" s="4">
+        <f>TRIM(A38)</f>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
@@ -1987,10 +2010,11 @@
         <f>N39*N39</f>
         <v/>
       </c>
+      <c r="P39" s="1" t="s"/>
     </row>
     <row hidden="1" r="40" spans="1:52">
       <c r="A40" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="16" t="n">
         <v>0</v>
@@ -2010,13 +2034,14 @@
       <c r="K40" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="AC40" s="4" t="n">
-        <v>1</v>
+      <c r="P40" s="4">
+        <f>TRIM(A40)</f>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
@@ -2054,10 +2079,11 @@
         <f>N41*N41</f>
         <v/>
       </c>
+      <c r="P41" s="1" t="s"/>
     </row>
     <row hidden="1" r="42" spans="1:52">
       <c r="A42" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>0</v>
@@ -2077,13 +2103,14 @@
       <c r="K42" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AA42" s="4" t="n">
-        <v>1</v>
+      <c r="P42" s="4">
+        <f>TRIM(A42)</f>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
@@ -2121,10 +2148,11 @@
         <f>N43*N43</f>
         <v/>
       </c>
+      <c r="P43" s="1" t="s"/>
     </row>
     <row hidden="1" r="44" spans="1:52">
       <c r="A44" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>0</v>
@@ -2144,13 +2172,14 @@
       <c r="K44" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="AB44" s="4" t="n">
-        <v>1</v>
+      <c r="P44" s="4">
+        <f>TRIM(A44)</f>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
@@ -2188,10 +2217,11 @@
         <f>N45*N45</f>
         <v/>
       </c>
+      <c r="P45" s="1" t="s"/>
     </row>
     <row hidden="1" r="46" spans="1:52">
       <c r="A46" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>0</v>
@@ -2211,13 +2241,14 @@
       <c r="K46" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB46" s="4" t="n">
-        <v>1</v>
+      <c r="P46" s="4">
+        <f>TRIM(A46)</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
@@ -2230,7 +2261,7 @@
       <c r="F47" s="1" t="s"/>
       <c r="G47" s="1" t="s"/>
       <c r="H47" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I47" s="14">
         <f>I48</f>
@@ -2257,10 +2288,11 @@
         <f>N47*N47</f>
         <v/>
       </c>
+      <c r="P47" s="1" t="s"/>
     </row>
     <row hidden="1" r="48" spans="1:52">
       <c r="A48" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>0</v>
@@ -2280,13 +2312,14 @@
       <c r="K48" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB48" s="4" t="n">
-        <v>1</v>
+      <c r="P48" s="4">
+        <f>TRIM(A48)</f>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
@@ -2295,7 +2328,7 @@
       <c r="F49" s="6" t="s"/>
       <c r="G49" s="6" t="s"/>
       <c r="H49" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9">
         <f>I50+I52+I54</f>
@@ -2313,10 +2346,11 @@
       <c r="M49" s="6" t="s"/>
       <c r="N49" s="6" t="s"/>
       <c r="O49" s="6" t="s"/>
+      <c r="P49" s="6" t="s"/>
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
@@ -2354,10 +2388,11 @@
         <f>N50*N50</f>
         <v/>
       </c>
+      <c r="P50" s="1" t="s"/>
     </row>
     <row hidden="1" r="51" spans="1:52">
       <c r="A51" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>0</v>
@@ -2377,13 +2412,14 @@
       <c r="K51" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="AB51" s="4" t="n">
-        <v>1</v>
+      <c r="P51" s="4">
+        <f>TRIM(A51)</f>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
@@ -2421,10 +2457,11 @@
         <f>N52*N52</f>
         <v/>
       </c>
+      <c r="P52" s="1" t="s"/>
     </row>
     <row hidden="1" r="53" spans="1:52">
       <c r="A53" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>0</v>
@@ -2444,13 +2481,14 @@
       <c r="K53" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="AB53" s="4" t="n">
-        <v>1</v>
+      <c r="P53" s="4">
+        <f>TRIM(A53)</f>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
@@ -2488,10 +2526,11 @@
         <f>N54*N54</f>
         <v/>
       </c>
+      <c r="P54" s="1" t="s"/>
     </row>
     <row hidden="1" r="55" spans="1:52">
       <c r="A55" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="16" t="n">
         <v>0</v>
@@ -2511,13 +2550,14 @@
       <c r="K55" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="AC55" s="4" t="n">
-        <v>1</v>
+      <c r="P55" s="4">
+        <f>TRIM(A55)</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="18" t="s"/>
       <c r="C57" s="18" t="s"/>
@@ -2527,34 +2567,34 @@
       <c r="G57" s="18" t="s"/>
       <c r="H57" s="18" t="s"/>
       <c r="I57" s="19">
-        <f>SUMPRODUCT(I2:I56,B2:B56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="J57" s="19">
-        <f>SUMPRODUCT(J2:J56,B2:B56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="K57" s="19">
-        <f>SUMPRODUCT(K2:K56,B2:B56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="L57" s="18" t="s"/>
       <c r="M57" s="19">
-        <f>SUMPRODUCT(M2:M56,B2:B56)</f>
+        <f>SUMIFS(M2:M56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="N57" s="19">
-        <f>SUMPRODUCT(N2:N56,B2:B56)</f>
+        <f>SUMIFS(N2:N56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="O57" s="19">
-        <f>SUMPRODUCT(O2:O56,B2:B56)</f>
+        <f>SUMIFS(O2:O56,B2:B56,"=1")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="18" t="s"/>
       <c r="C58" s="18" t="s"/>
@@ -2564,15 +2604,15 @@
       <c r="G58" s="18" t="s"/>
       <c r="H58" s="18" t="s"/>
       <c r="I58" s="19">
-        <f>SUMPRODUCT(I2:I56,AA2:AA56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J58" s="19">
-        <f>SUMPRODUCT(J2:J56,AA2:AA56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K58" s="19">
-        <f>SUMPRODUCT(K2:K56,AA2:AA56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M58" s="19">
@@ -2586,7 +2626,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="18" t="s"/>
       <c r="C59" s="18" t="s"/>
@@ -2596,15 +2636,15 @@
       <c r="G59" s="18" t="s"/>
       <c r="H59" s="18" t="s"/>
       <c r="I59" s="19">
-        <f>SUMPRODUCT(I2:I56,AB2:AB56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J59" s="19">
-        <f>SUMPRODUCT(J2:J56,AB2:AB56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K59" s="19">
-        <f>SUMPRODUCT(K2:K56,AB2:AB56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M59" s="19">
@@ -2618,7 +2658,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="18" t="s"/>
       <c r="C60" s="18" t="s"/>
@@ -2628,15 +2668,15 @@
       <c r="G60" s="18" t="s"/>
       <c r="H60" s="18" t="s"/>
       <c r="I60" s="19">
-        <f>SUMPRODUCT(I2:I56,AC2:AC56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="J60" s="19">
-        <f>SUMPRODUCT(J2:J56,AC2:AC56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="K60" s="19">
-        <f>SUMPRODUCT(K2:K56,AC2:AC56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="M60" s="19">
@@ -2650,7 +2690,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s"/>
       <c r="C62" s="18" t="s"/>
@@ -2660,34 +2700,34 @@
       <c r="G62" s="18" t="s"/>
       <c r="H62" s="18" t="s"/>
       <c r="I62" s="19">
-        <f>SUMPRODUCT(I2:I56,B2:B56,C2:C56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=1",C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="J62" s="19">
-        <f>SUMPRODUCT(J2:J56,B2:B56,C2:C56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=1",C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="K62" s="19">
-        <f>SUMPRODUCT(K2:K56,B2:B56,C2:C56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=1",C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="L62" s="18" t="s"/>
       <c r="M62" s="19">
-        <f>SUMPRODUCT(M2:M56,B2:B56,C2:C56)</f>
+        <f>SUMIFS(M2:M56,B2:B56,"=1",C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="N62" s="19">
-        <f>SUMPRODUCT(N2:N56,B2:B56,C2:C56)</f>
+        <f>SUMIFS(N2:N56,B2:B56,"=1",C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="O62" s="19">
-        <f>SUMPRODUCT(O2:O56,B2:B56,C2:C56)</f>
+        <f>SUMIFS(O2:O56,B2:B56,"=1",C2:C56,"=1")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C64" s="14">
         <f>SQRT(O62)</f>
@@ -2696,12 +2736,12 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="14" t="n">
         <v>1</v>
@@ -2709,7 +2749,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" s="22" t="n">
         <v>0.25</v>
@@ -2717,7 +2757,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="22" t="n">
         <v>0.05</v>
@@ -2725,7 +2765,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" s="22" t="n">
         <v>0.05</v>
@@ -2733,7 +2773,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -2741,7 +2781,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" s="14" t="n">
         <v>1</v>
@@ -2749,7 +2789,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" s="14">
         <f>SUM(C66:C70)*C71</f>
@@ -2758,7 +2798,7 @@
     </row>
     <row r="74" spans="1:52">
       <c r="A74" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74" s="18" t="s"/>
       <c r="C74" s="19">
@@ -2776,7 +2816,7 @@
     </row>
     <row r="75" spans="1:52">
       <c r="A75" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B75" s="18" t="s"/>
       <c r="C75" s="19">

--- a/example/Estimation Tool.mm.mvp.ff.xlsx
+++ b/example/Estimation Tool.mm.mvp.ff.xlsx
@@ -671,13 +671,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="40"/>
+    <col customWidth="1" max="1" min="1" style="1" width="50"/>
     <col customWidth="1" max="2" min="2" style="2" width="3"/>
     <col customWidth="1" max="3" min="3" style="1" width="8"/>
-    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
-    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="50"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="10"/>
     <col customWidth="1" max="8" min="8" style="3" width="50"/>
     <col customWidth="1" max="9" min="9" style="4" width="8"/>
     <col customWidth="1" max="10" min="10" style="4" width="8"/>
@@ -863,7 +863,7 @@
       <c r="K5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="17">
         <f>TRIM(A5)</f>
         <v/>
       </c>
@@ -932,7 +932,7 @@
       <c r="K7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="17">
         <f>TRIM(A7)</f>
         <v/>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="K9" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="17">
         <f>TRIM(A9)</f>
         <v/>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="K11" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="17">
         <f>TRIM(A11)</f>
         <v/>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="K14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="17">
         <f>TRIM(A14)</f>
         <v/>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="K16" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="17">
         <f>TRIM(A16)</f>
         <v/>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="K18" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="17">
         <f>TRIM(A18)</f>
         <v/>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="K20" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="17">
         <f>TRIM(A20)</f>
         <v/>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="K24" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="17">
         <f>TRIM(A24)</f>
         <v/>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="K26" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="17">
         <f>TRIM(A26)</f>
         <v/>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="K28" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="17">
         <f>TRIM(A28)</f>
         <v/>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="K30" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="17">
         <f>TRIM(A30)</f>
         <v/>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="K31" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="17">
         <f>TRIM(A31)</f>
         <v/>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="K33" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="17">
         <f>TRIM(A33)</f>
         <v/>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="K34" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="17">
         <f>TRIM(A34)</f>
         <v/>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="K38" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="17">
         <f>TRIM(A38)</f>
         <v/>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="K40" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="17">
         <f>TRIM(A40)</f>
         <v/>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="K42" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="17">
         <f>TRIM(A42)</f>
         <v/>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K44" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="17">
         <f>TRIM(A44)</f>
         <v/>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="K46" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="17">
         <f>TRIM(A46)</f>
         <v/>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="K48" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="17">
         <f>TRIM(A48)</f>
         <v/>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="K51" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="17">
         <f>TRIM(A51)</f>
         <v/>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K53" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="17">
         <f>TRIM(A53)</f>
         <v/>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="K55" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="17">
         <f>TRIM(A55)</f>
         <v/>
       </c>
@@ -2731,6 +2731,10 @@
       </c>
       <c r="C64" s="14">
         <f>SQRT(O62)</f>
+        <v/>
+      </c>
+      <c r="H64" s="20">
+        <f>C64/M62</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.mvp.ff.xlsx
+++ b/example/Estimation Tool.mm.mvp.ff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>K (total)</t>
-  </si>
-  <si>
-    <t>Min (MVP, P=95%)</t>
   </si>
   <si>
     <t>Max (MVP, P=95%)</t>
@@ -295,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -354,10 +351,13 @@
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2567,28 +2567,28 @@
       <c r="G57" s="18" t="s"/>
       <c r="H57" s="18" t="s"/>
       <c r="I57" s="19">
-        <f>SUMIFS(I2:I56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="J57" s="19">
-        <f>SUMIFS(J2:J56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="K57" s="19">
-        <f>SUMIFS(K2:K56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="L57" s="18" t="s"/>
       <c r="M57" s="19">
-        <f>SUMIFS(M2:M56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!M2:M56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="N57" s="19">
-        <f>SUMIFS(N2:N56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!N2:N56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="O57" s="19">
-        <f>SUMIFS(O2:O56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!O2:O56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
     </row>
@@ -2604,15 +2604,15 @@
       <c r="G58" s="18" t="s"/>
       <c r="H58" s="18" t="s"/>
       <c r="I58" s="19">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J58" s="19">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K58" s="19">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M58" s="19">
@@ -2620,7 +2620,7 @@
         <v/>
       </c>
       <c r="N58" s="20">
-        <f>(M58/M57)</f>
+        <f>(M58/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2636,15 +2636,15 @@
       <c r="G59" s="18" t="s"/>
       <c r="H59" s="18" t="s"/>
       <c r="I59" s="19">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J59" s="19">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K59" s="19">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M59" s="19">
@@ -2652,7 +2652,7 @@
         <v/>
       </c>
       <c r="N59" s="20">
-        <f>(M59/M57)</f>
+        <f>(M59/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2668,15 +2668,15 @@
       <c r="G60" s="18" t="s"/>
       <c r="H60" s="18" t="s"/>
       <c r="I60" s="19">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="J60" s="19">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="K60" s="19">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="M60" s="19">
@@ -2684,7 +2684,7 @@
         <v/>
       </c>
       <c r="N60" s="20">
-        <f>(M60/M57)</f>
+        <f>(M60/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2700,28 +2700,28 @@
       <c r="G62" s="18" t="s"/>
       <c r="H62" s="18" t="s"/>
       <c r="I62" s="19">
-        <f>SUMIFS(I2:I56,B2:B56,"=1",C2:C56,"=1")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="J62" s="19">
-        <f>SUMIFS(J2:J56,B2:B56,"=1",C2:C56,"=1")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="K62" s="19">
-        <f>SUMIFS(K2:K56,B2:B56,"=1",C2:C56,"=1")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="L62" s="18" t="s"/>
       <c r="M62" s="19">
-        <f>SUMIFS(M2:M56,B2:B56,"=1",C2:C56,"=1")</f>
+        <f>SUMIFS(Estimates!M2:M56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="N62" s="19">
-        <f>SUMIFS(N2:N56,B2:B56,"=1",C2:C56,"=1")</f>
+        <f>SUMIFS(Estimates!N2:N56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
       <c r="O62" s="19">
-        <f>SUMIFS(O2:O56,B2:B56,"=1",C2:C56,"=1")</f>
+        <f>SUMIFS(Estimates!O2:O56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
         <f>SQRT(O62)</f>
         <v/>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="22">
         <f>C64/M62</f>
         <v/>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="A67" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="22" t="n">
+      <c r="C67" s="23" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       <c r="A68" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="22" t="n">
+      <c r="C68" s="23" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="A69" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="22" t="n">
+      <c r="C69" s="23" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       <c r="A70" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="22" t="n">
+      <c r="C70" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2802,25 +2802,25 @@
     </row>
     <row r="74" spans="1:52">
       <c r="A74" s="18" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B74" s="18" t="s"/>
       <c r="C74" s="19">
-        <f>M62-2*C64</f>
+        <f>M62-1*C64</f>
         <v/>
       </c>
       <c r="D74" s="18" t="s"/>
       <c r="E74" s="18" t="s"/>
       <c r="F74" s="18" t="s"/>
       <c r="G74" s="18" t="s"/>
-      <c r="H74" s="23">
-        <f>C74*C72</f>
+      <c r="H74" s="24">
+        <f>C74*Estimates!C72</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:52">
       <c r="A75" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="18" t="s"/>
       <c r="C75" s="19">
@@ -2831,8 +2831,8 @@
       <c r="E75" s="18" t="s"/>
       <c r="F75" s="18" t="s"/>
       <c r="G75" s="18" t="s"/>
-      <c r="H75" s="23">
-        <f>C75*C72</f>
+      <c r="H75" s="24">
+        <f>C75*Estimates!C72</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.mvp.ff.xlsx
+++ b/example/Estimation Tool.mm.mvp.ff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>K (total)</t>
+  </si>
+  <si>
+    <t>Min (MVP)</t>
   </si>
   <si>
     <t>Max (MVP, P=95%)</t>
@@ -663,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ75"/>
+  <dimension ref="A1:AZ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,7 +809,7 @@
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s"/>
@@ -875,7 +878,7 @@
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s"/>
@@ -944,7 +947,7 @@
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s"/>
@@ -1013,7 +1016,7 @@
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s"/>
@@ -1111,7 +1114,7 @@
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s"/>
@@ -1180,7 +1183,7 @@
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s"/>
@@ -1249,7 +1252,7 @@
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s"/>
@@ -1318,7 +1321,7 @@
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s"/>
@@ -1449,7 +1452,7 @@
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s"/>
@@ -1518,7 +1521,7 @@
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s"/>
@@ -1587,7 +1590,7 @@
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s"/>
@@ -1656,7 +1659,7 @@
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s"/>
@@ -1752,7 +1755,7 @@
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s"/>
@@ -1908,7 +1911,7 @@
       <c r="B37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s"/>
@@ -1977,7 +1980,7 @@
       <c r="B39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s"/>
@@ -2046,7 +2049,7 @@
       <c r="B41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s"/>
@@ -2115,7 +2118,7 @@
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s"/>
@@ -2184,7 +2187,7 @@
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s"/>
@@ -2253,7 +2256,7 @@
       <c r="B47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s"/>
@@ -2355,7 +2358,7 @@
       <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s"/>
@@ -2424,7 +2427,7 @@
       <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s"/>
@@ -2493,7 +2496,7 @@
       <c r="B54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s"/>
@@ -2592,41 +2595,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:52">
-      <c r="A58" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="18" t="s"/>
-      <c r="C58" s="18" t="s"/>
-      <c r="D58" s="18" t="s"/>
-      <c r="E58" s="18" t="s"/>
-      <c r="F58" s="18" t="s"/>
-      <c r="G58" s="18" t="s"/>
-      <c r="H58" s="18" t="s"/>
-      <c r="I58" s="19">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="J58" s="19">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="K58" s="19">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="M58" s="19">
-        <f>(I58+4*J58+K58)/6</f>
-        <v/>
-      </c>
-      <c r="N58" s="20">
-        <f>(M58/Estimates!M57)</f>
-        <v/>
-      </c>
-    </row>
     <row r="59" spans="1:52">
       <c r="A59" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="18" t="s"/>
       <c r="C59" s="18" t="s"/>
@@ -2636,15 +2607,15 @@
       <c r="G59" s="18" t="s"/>
       <c r="H59" s="18" t="s"/>
       <c r="I59" s="19">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J59" s="19">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K59" s="19">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M59" s="19">
@@ -2655,10 +2626,14 @@
         <f>(M59/Estimates!M57)</f>
         <v/>
       </c>
+      <c r="P59" s="2">
+        <f>IF(N59&gt;0, 1, 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="18" t="s"/>
       <c r="C60" s="18" t="s"/>
@@ -2668,15 +2643,15 @@
       <c r="G60" s="18" t="s"/>
       <c r="H60" s="18" t="s"/>
       <c r="I60" s="19">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J60" s="19">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K60" s="19">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M60" s="19">
@@ -2687,89 +2662,121 @@
         <f>(M60/Estimates!M57)</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:52">
-      <c r="A62" s="18" t="s">
+      <c r="P60" s="2">
+        <f>IF(N60&gt;0, 1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="18" t="s"/>
+      <c r="C61" s="18" t="s"/>
+      <c r="D61" s="18" t="s"/>
+      <c r="E61" s="18" t="s"/>
+      <c r="F61" s="18" t="s"/>
+      <c r="G61" s="18" t="s"/>
+      <c r="H61" s="18" t="s"/>
+      <c r="I61" s="19">
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="J61" s="19">
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="K61" s="19">
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="M61" s="19">
+        <f>(I61+4*J61+K61)/6</f>
+        <v/>
+      </c>
+      <c r="N61" s="20">
+        <f>(M61/Estimates!M57)</f>
+        <v/>
+      </c>
+      <c r="P61" s="2">
+        <f>IF(N61&gt;0, 1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="A63" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="18" t="s"/>
-      <c r="C62" s="18" t="s"/>
-      <c r="D62" s="18" t="s"/>
-      <c r="E62" s="18" t="s"/>
-      <c r="F62" s="18" t="s"/>
-      <c r="G62" s="18" t="s"/>
-      <c r="H62" s="18" t="s"/>
-      <c r="I62" s="19">
+      <c r="B63" s="18" t="s"/>
+      <c r="C63" s="18" t="s"/>
+      <c r="D63" s="18" t="s"/>
+      <c r="E63" s="18" t="s"/>
+      <c r="F63" s="18" t="s"/>
+      <c r="G63" s="18" t="s"/>
+      <c r="H63" s="18" t="s"/>
+      <c r="I63" s="19">
         <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
-      <c r="J62" s="19">
+      <c r="J63" s="19">
         <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
-      <c r="K62" s="19">
+      <c r="K63" s="19">
         <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
-      <c r="L62" s="18" t="s"/>
-      <c r="M62" s="19">
+      <c r="L63" s="18" t="s"/>
+      <c r="M63" s="19">
         <f>SUMIFS(Estimates!M2:M56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
-      <c r="N62" s="19">
+      <c r="N63" s="19">
         <f>SUMIFS(Estimates!N2:N56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
         <v/>
       </c>
-      <c r="O62" s="19">
+      <c r="O63" s="19">
         <f>SUMIFS(Estimates!O2:O56,Estimates!B2:B56,"=1",Estimates!C2:C56,"=1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:52">
-      <c r="A64" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="14">
-        <f>SQRT(O62)</f>
-        <v/>
-      </c>
-      <c r="H64" s="22">
-        <f>C64/M62</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C65" s="14">
+        <f>SQRT(O63)</f>
+        <v/>
+      </c>
+      <c r="H65" s="22">
+        <f>C65/M63</f>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="14" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="23" t="n">
-        <v>0.25</v>
+        <v>59</v>
+      </c>
+      <c r="C67" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="23" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>0.05</v>
@@ -2777,44 +2784,34 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="23" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="14" t="n">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C71" s="23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
+      <c r="A73" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="14">
-        <f>SUM(C66:C70)*C71</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:52">
-      <c r="A74" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="18" t="s"/>
-      <c r="C74" s="19">
-        <f>M62-1*C64</f>
-        <v/>
-      </c>
-      <c r="D74" s="18" t="s"/>
-      <c r="E74" s="18" t="s"/>
-      <c r="F74" s="18" t="s"/>
-      <c r="G74" s="18" t="s"/>
-      <c r="H74" s="24">
-        <f>C74*Estimates!C72</f>
+      <c r="C73" s="14">
+        <f>SUM(C67:C71)*C72</f>
         <v/>
       </c>
     </row>
@@ -2824,7 +2821,7 @@
       </c>
       <c r="B75" s="18" t="s"/>
       <c r="C75" s="19">
-        <f>M62+2*C64</f>
+        <f>M63-1*C65</f>
         <v/>
       </c>
       <c r="D75" s="18" t="s"/>
@@ -2832,7 +2829,25 @@
       <c r="F75" s="18" t="s"/>
       <c r="G75" s="18" t="s"/>
       <c r="H75" s="24">
-        <f>C75*Estimates!C72</f>
+        <f>C75*Estimates!C73</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:52">
+      <c r="A76" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="18" t="s"/>
+      <c r="C76" s="19">
+        <f>M63+2*C65</f>
+        <v/>
+      </c>
+      <c r="D76" s="18" t="s"/>
+      <c r="E76" s="18" t="s"/>
+      <c r="F76" s="18" t="s"/>
+      <c r="G76" s="18" t="s"/>
+      <c r="H76" s="24">
+        <f>C76*Estimates!C73</f>
         <v/>
       </c>
     </row>
